--- a/Упражнения простые/3.Basic choke.xlsx
+++ b/Упражнения простые/3.Basic choke.xlsx
@@ -1,47 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C033E444-AE5A-41E7-9E53-85CBC492029D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D909EA7-1851-497C-A04F-9000630F6643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
-    <sheet name="PVT" sheetId="112" r:id="rId2"/>
+    <sheet name="Choke" sheetId="112" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
-    <definedName name="Bob_" localSheetId="1">PVT!$C$14</definedName>
-    <definedName name="dchoke_">PVT!$C$20</definedName>
-    <definedName name="dpipe_">PVT!$C$19</definedName>
-    <definedName name="fw_">PVT!$C$24</definedName>
-    <definedName name="gamma_gas_" localSheetId="1">PVT!$C$9</definedName>
-    <definedName name="gamma_oil_" localSheetId="1">PVT!$C$7</definedName>
-    <definedName name="gamma_wat_">PVT!$C$8</definedName>
-    <definedName name="Ksep_">PVT!$D$29</definedName>
-    <definedName name="muob_">PVT!$C$15</definedName>
-    <definedName name="Pb_" localSheetId="1">PVT!$C$12</definedName>
-    <definedName name="Pin_">PVT!$C$21</definedName>
-    <definedName name="Pout_">PVT!$C$22</definedName>
-    <definedName name="Psep_">PVT!$B$29</definedName>
-    <definedName name="Qliq_">PVT!$C$23</definedName>
-    <definedName name="Rp_" localSheetId="1">PVT!$C$11</definedName>
-    <definedName name="Rsb_" localSheetId="1">PVT!$C$10</definedName>
-    <definedName name="T_">PVT!$C$33</definedName>
-    <definedName name="Tres_" localSheetId="1">PVT!$C$13</definedName>
-    <definedName name="Tsep_">PVT!$C$29</definedName>
+    <definedName name="Bob_" localSheetId="1">Choke!$C$14</definedName>
+    <definedName name="dchoke_">Choke!$C$20</definedName>
+    <definedName name="dpipe_">Choke!$C$19</definedName>
+    <definedName name="fw_">Choke!$C$24</definedName>
+    <definedName name="gamma_gas_" localSheetId="1">Choke!$C$9</definedName>
+    <definedName name="gamma_oil_" localSheetId="1">Choke!$C$7</definedName>
+    <definedName name="gamma_wat_">Choke!$C$8</definedName>
+    <definedName name="Ksep_">Choke!$D$29</definedName>
+    <definedName name="muob_">Choke!$C$15</definedName>
+    <definedName name="Pb_" localSheetId="1">Choke!$C$12</definedName>
+    <definedName name="Pin_">Choke!$C$21</definedName>
+    <definedName name="Pout_">Choke!$C$22</definedName>
+    <definedName name="Psep_">Choke!$B$29</definedName>
+    <definedName name="Qliq_">Choke!$C$23</definedName>
+    <definedName name="Rp_" localSheetId="1">Choke!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="1">Choke!$C$10</definedName>
+    <definedName name="T_">Choke!$C$33</definedName>
+    <definedName name="Tres_" localSheetId="1">Choke!$C$13</definedName>
+    <definedName name="Tsep_">Choke!$C$29</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -820,9 +820,6 @@
     </r>
   </si>
   <si>
-    <t>choke function call example</t>
-  </si>
-  <si>
     <r>
       <t>P</t>
     </r>
@@ -891,6 +888,9 @@
   </si>
   <si>
     <t>°С</t>
+  </si>
+  <si>
+    <t>Choke function call example</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>16426</xdr:colOff>
@@ -1353,8 +1353,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="MF_dPChoke_atm"/>
@@ -57435,8 +57435,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -57455,7 +57455,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -57578,7 +57578,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="13">
         <f>Tres_*9/5+32</f>
@@ -57614,14 +57614,14 @@
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="7">
         <v>62</v>
@@ -57630,7 +57630,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>156</v>
       </c>
@@ -57641,9 +57641,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7">
         <v>21</v>
@@ -57652,9 +57652,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
@@ -57663,7 +57663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
         <v>151</v>
       </c>
@@ -57674,7 +57674,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>152</v>
       </c>
@@ -57685,15 +57685,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>161</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>0</v>
       </c>
@@ -57704,7 +57702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="19">
         <v>23</v>
       </c>
@@ -57715,33 +57713,33 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="19">
         <v>80</v>
